--- a/GATEWAY/A1#111BCSSRL00000/BCS/PRIAMOLAB/1.0./report-checklist.xlsx
+++ b/GATEWAY/A1#111BCSSRL00000/BCS/PRIAMOLAB/1.0./report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\da consegnare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491143FA-A003-482E-96DB-C1B8B74E060F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1B1448-3CDF-4F36-B75F-6A9C8031EEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1782,15 +1782,6 @@
     <t>Errore durante la validazione del documento per il fascicolo sanitario.GATEWAY001: Errore generico nella chiamata al Gateway FSE 2.0Dettagli: HTTP Status Code: BadRequest {"traceID":"19c4cbff15fe812d2ca6b2752ff0b057","spanID":"5ca3650db48f0459","type":"/msg/vocabulary","title":"Errore vocabolario.","detail":"È stata trovata almeno una versione non gestita di un dizionario: [2.16.840.1.113883.6.1 v2.70]","status":400,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.30.4.4.20a87e538ca1d9a96d3b00dfb49d466bafceed949d0966a7278504235ed771fc.6b48a20f08^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
-    <t>9dc713bd0280ebf8b6d2c3902e4cd55b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.757f149c146e8c3c0ab834cf5d73488b5920a6466c181548f3aaa241fc7916ad.25a719f202^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Errore durante la validazione del documento per il fascicolo sanitario.GATEWAY001: Errore generico nella chiamata al Gateway FSE 2.0Dettagli: HTTP Status Code: BadRequest {"traceID":"9dc713bd0280ebf8b6d2c3902e4cd55b","spanID":"83cba6a8645cb63e","type":"/msg/vocabulary","title":"Errore vocabolario.","detail":"È stata trovata almeno una versione non gestita di un dizionario: [2.16.840.1.113883.6.1 v2.70]","status":400,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.30.4.4.757f149c146e8c3c0ab834cf5d73488b5920a6466c181548f3aaa241fc7916ad.25a719f202^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
-  </si>
-  <si>
     <t>9fa2c11bcbbb29625956c160efd45f96</t>
   </si>
   <si>
@@ -1833,19 +1824,28 @@
     <t>Errore durante la validazione del documento per il fascicolo sanitario.GATEWAY001: Errore generico nella chiamata al Gateway FSE 2.0Dettagli: HTTP Status Code: BadRequest {"traceID":"30140cb7a8c12ab926209b80caf337b5","spanID":"b1698d1342f42a42","type":"/msg/syntax","title":"Errore di sintassi.","detail":"ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element '{\"urn:hl7-org:v3\":languageCode}'. One of '{\"urn:hl7-org:v3\":confidentialityCode}' is expected.","status":400,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.30.4.4.568c6db5f870d99f3326fae9f45f30dce7ac5bc8f9862f2195426373969ace7d.f40d05eaf5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
-    <t>Errore durante la validazione del documento per il fascicolo sanitario.GATEWAY001: Errore generico nella chiamata al Gateway FSE 2.0Dettagli: HTTP Status Code: BadRequest {"traceID":"0338ecd2b3c27b2810998f3dbd775988","spanID":"e102ec034153fd44","type":"/msg/syntax","title":"Errore di sintassi.","detail":"ERROR: -1,-1 cvc-minLength-valid: Value '' with length = '0' is not facet-valid with respect to minLength '1' for type 'st'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'displayName' on element 'priorityCode' is not valid with respect to its type, 'st'.","status":400,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.30.4.4.670cd3522426215164838fdb361116b7f89ed4bcfaf840af8ef27847c4c14110.396dbd132f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
-  </si>
-  <si>
-    <t>0338ecd2b3c27b2810998f3dbd775988</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.670cd3522426215164838fdb361116b7f89ed4bcfaf840af8ef27847c4c14110.396dbd132f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>e574cd31a4693cf70f5b0a68bac4d23d</t>
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.30.4.4.a8a27078c373033911f7360e3e3ba7a2a39968190d6e0eb4c48ccfcc409b55f9.4743448663^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>8bb11f2d11781a93b259be365f1e616b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.cc0a02e01c78bff0c03a159b60422a6721e9fad79cba3b0694d0a86950860d33.e976cfdc67^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Errore validazione. Documento: 833019954000 - Errore durante la validazione del documento per il fascicolo sanitario.GATEWAY001: Errore generico nella chiamata al Gateway FSE 2.0Dettagli: HTTP Status Code: BadRequest {"traceID":"8bb11f2d11781a93b259be365f1e616b","spanID":"e9cca11b2b85e671","type":"/msg/syntax","title":"Errore di sintassi.","detail":"ERROR: -1,-1 cvc-minLength-valid: Value '' with length = '0' is not facet-valid with respect to minLength '1' for type 'st'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'extension' on element 'id' is not valid with respect to its type, 'st'.","status":400,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.30.4.4.cc0a02e01c78bff0c03a159b60422a6721e9fad79cba3b0694d0a86950860d33.e976cfdc67^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
+  </si>
+  <si>
+    <t>3d39a9f84d8bc8ae4d8ea19e915c69f9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.23fa38e632589c3d7ba6024a12cc93f4dc008d4aa26dae14d34cf923bfca25aa.212461182c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Errore durante la validazione del documento per il fascicolo sanitario.GATEWAY001: Errore generico nella chiamata al Gateway FSE 2.0Dettagli: HTTP Status Code: BadRequest {"traceID":"3d39a9f84d8bc8ae4d8ea19e915c69f9","spanID":"9e62e785dba38232","type":"/msg/vocabulary","title":"Errore vocabolario.","detail":"Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.7 v2.1.0, Codes: X]","status":400,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.30.4.4.23fa38e632589c3d7ba6024a12cc93f4dc008d4aa26dae14d34cf923bfca25aa.212461182c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
 </sst>
 </file>
@@ -3920,10 +3920,10 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="J183" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="J190" sqref="J190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4233,10 +4233,10 @@
         <v>45845.415196759262</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="J10" s="38" t="s">
         <v>64</v>
@@ -5471,7 +5471,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="245.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" ht="351" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="35">
         <v>59</v>
       </c>
@@ -5488,16 +5488,16 @@
         <v>79</v>
       </c>
       <c r="F39" s="37">
-        <v>45812</v>
+        <v>45859</v>
       </c>
       <c r="G39" s="37">
-        <v>45812.553576388891</v>
+        <v>45859.562939814816</v>
       </c>
       <c r="H39" s="37" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="I39" s="42" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="J39" s="38" t="s">
         <v>64</v>
@@ -5511,7 +5511,7 @@
         <v>64</v>
       </c>
       <c r="O39" s="38" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="P39" s="38" t="s">
         <v>228</v>
@@ -5555,10 +5555,10 @@
         <v>45812.593182870369</v>
       </c>
       <c r="H40" s="37" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="I40" s="42" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="J40" s="38" t="s">
         <v>64</v>
@@ -5572,7 +5572,7 @@
         <v>64</v>
       </c>
       <c r="O40" s="38" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="P40" s="38" t="s">
         <v>228</v>
@@ -5616,10 +5616,10 @@
         <v>45812.596724537034</v>
       </c>
       <c r="H41" s="37" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="I41" s="42" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="J41" s="38" t="s">
         <v>64</v>
@@ -5633,7 +5633,7 @@
         <v>64</v>
       </c>
       <c r="O41" s="38" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="P41" s="38" t="s">
         <v>228</v>
@@ -5677,10 +5677,10 @@
         <v>45812.601747685185</v>
       </c>
       <c r="H42" s="37" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="I42" s="42" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J42" s="38" t="s">
         <v>64</v>
@@ -5694,7 +5694,7 @@
         <v>64</v>
       </c>
       <c r="O42" s="38" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="P42" s="38" t="s">
         <v>228</v>
@@ -10445,10 +10445,10 @@
         <v>45817.467731481483</v>
       </c>
       <c r="H170" s="37" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="I170" s="42" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="J170" s="38" t="s">
         <v>64</v>
@@ -10936,10 +10936,10 @@
         <v>45812.609247685185</v>
       </c>
       <c r="H183" s="38" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I183" s="38" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="J183" s="38" t="s">
         <v>64</v>
@@ -10953,7 +10953,7 @@
         <v>64</v>
       </c>
       <c r="O183" s="38" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="P183" s="38" t="s">
         <v>228</v>
@@ -11196,7 +11196,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="190" spans="1:23" ht="303" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:23" ht="259.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="35">
         <v>473</v>
       </c>
@@ -11213,16 +11213,16 @@
         <v>431</v>
       </c>
       <c r="F190" s="37">
-        <v>45827</v>
+        <v>45860</v>
       </c>
       <c r="G190" s="37">
-        <v>45827.610902777778</v>
+        <v>45860.427384259259</v>
       </c>
       <c r="H190" s="37" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="I190" s="42" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J190" s="38" t="s">
         <v>64</v>
@@ -11236,7 +11236,7 @@
         <v>64</v>
       </c>
       <c r="O190" s="38" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="P190" s="38" t="s">
         <v>228</v>
@@ -17632,12 +17632,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17899,21 +17902,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17938,18 +17947,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
